--- a/biology/Médecine/Maladie_du_sirop_d'érable/Maladie_du_sirop_d'érable.xlsx
+++ b/biology/Médecine/Maladie_du_sirop_d'érable/Maladie_du_sirop_d'érable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_du_sirop_d%27%C3%A9rable</t>
+          <t>Maladie_du_sirop_d'érable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie du sirop d'érable (leucinose, déficit en céto-acide décarboxylase ou MSUD pour l'anglais Maple Syrup Urine Syndrome) est une maladie génétique congénitale qui se transmet sur le mode autosomique récessif. Elle comprend plusieurs formes dans lesquelles l'organisme est incapable de dégrader correctement certains acides aminés notamment la leucine, l'isoleucine et la valine.
 Le complexe 3-méthyl-2-oxobutanoate déshydrogénase, déficient, provoque une accumulation de ces acides aminés dans le corps à des niveaux toxiques. Lorsque la maladie n'est pas traitée, elle conduit à des lésions cérébrales et une progressive dégénérescence du système nerveux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_du_sirop_d%27%C3%A9rable</t>
+          <t>Maladie_du_sirop_d'érable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie est due à une mutation des gènes BCKDHA et MSUD1 situé sur le chromosome 19 et/ou une mutation des gènes DLD, LAD et PHE3 situés sur le chromosome 7. Ces gènes produisent des protéines qui agissent de concert en tant que complexe 3-méthyl-2-oxobutanoate déshydrogénase. Ce complexe est essentiel pour métaboliser la leucine, l'isoleucine et la valine, trois acides aminés présents dans diverses sortes d'aliments (en particulier les aliments riches en protéines, comme la viande et les œufs). Des mutations dans l'un ou l'autre de ces gènes réduisent ou rendent nulle l'activité de métabolisation de ce complexe d'enzymes, et empêchent ainsi la dégradation normale de la leucine, de l'isoleucine et de la valine. Dès lors, ces acides aminés et leurs produits secondaires, les métabolites s'accumulent dans l'organisme notamment le 2-kétoisocaproate, le 2-kétoisovalérate et le 2-kéto-3-méthylvalérate. Dans la mesure où des taux élevés de ces substances sont toxiques pour le cerveau et d'autres organes, cette accumulation entraîne de sérieux problèmes médicaux associés à la maladie du sirop d'érable.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_du_sirop_d%27%C3%A9rable</t>
+          <t>Maladie_du_sirop_d'érable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévalence de la leucinose est d'un cas pour 225 000 naissances. Elle touche indifféremment les hommes et les femmes quelle que soit leur origine ethnique. Des taux plus élevés sont constatés dans les populations où les mariages consanguins sont plus importants, notamment dans les communautés Mennonites d'Amérique du Nord où l'incidence estimée est de l'ordre d'un cas pour 150 naissances viables[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence de la leucinose est d'un cas pour 225 000 naissances. Elle touche indifféremment les hommes et les femmes quelle que soit leur origine ethnique. Des taux plus élevés sont constatés dans les populations où les mariages consanguins sont plus importants, notamment dans les communautés Mennonites d'Amérique du Nord où l'incidence estimée est de l'ordre d'un cas pour 150 naissances viables.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_du_sirop_d%27%C3%A9rable</t>
+          <t>Maladie_du_sirop_d'érable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les enfants non traités, cette maladie se manifeste dès les premiers jours de la vie par une odeur typique de sirop d'érable dans le cérumen. Les acides aminés non métabolisés se retrouvent dans des concentrations importantes dans le sang et sont éliminés dans l'urine en lui conférant une odeur typique de sirop d'érable au bout de plusieurs jours. La conséquence métabolique se traduit par une augmentation sérique des cétoacides entraînant une cétose et une acidose métabolique, une augmentation de la métabolisation du glucose renforçant la cétose et une augmentation de la concentration plasmatique de leucine toxique pour le cerveau.
 Dans la forme aiguë, le nourrisson manifeste des troubles de la conscience, un refus de boire, gagne du poids lentement, présente des vomissements et des signes neurologiques d'intoxication. L'évolution sans traitement est caractérisée par une aggravation de l'état clinique qui tend vers un coma profond suivi de la mort du nourrisson.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_du_sirop_d%27%C3%A9rable</t>
+          <t>Maladie_du_sirop_d'érable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans toutes ces formes, le diagnostic repose sur l'élévation plasmatique et urinaire de leucine, isoleucine et valine, avec présence d'alloisoleucine, parfois notée seulement au cours des accès dans les formes intermittentes.
 Le diagnostic anténatal est possible.
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_du_sirop_d%27%C3%A9rable</t>
+          <t>Maladie_du_sirop_d'érable</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement d'urgence de la forme aiguë repose sur l'épuration exogène (dialyse, hémofiltration) et/ou endogène (régime hypercalorique sans acides aminés ramifiés qui doit être poursuivi à vie).
 Le traitement au long cours consiste en un régime diététique strictement limité en acides aminés ramifiés ou par l'administration conjointe de produits spécifiques, riche en acides aminés pour assurer l'apport protéique et pauvre en leucine, isoleucine et valine (l'apport de ces acides aminés par l'alimentation devant être égal à leur degré d'élimination par le corps).
